--- a/excels/Core/Trad MM.xlsx
+++ b/excels/Core/Trad MM.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="652">
   <si>
     <t>quickref</t>
   </si>
@@ -1966,6 +1966,24 @@
   </si>
   <si>
     <t>Yuan-ti Pureblood</t>
+  </si>
+  <si>
+    <t>Gigante de las colinas</t>
+  </si>
+  <si>
+    <t>Gigante de las nubes</t>
+  </si>
+  <si>
+    <t>Gigante de fuego</t>
+  </si>
+  <si>
+    <t>Gigante de escarcha</t>
+  </si>
+  <si>
+    <t>Gigante de piedra</t>
+  </si>
+  <si>
+    <t>Gigante de las tormentas</t>
   </si>
 </sst>
 </file>
@@ -2406,8 +2424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2902,6 +2920,9 @@
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>647</v>
+      </c>
       <c r="C86" t="s">
         <v>375</v>
       </c>
@@ -3224,6 +3245,9 @@
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>648</v>
+      </c>
       <c r="C142" t="s">
         <v>417</v>
       </c>
@@ -3278,6 +3302,9 @@
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>649</v>
+      </c>
       <c r="C151" t="s">
         <v>423</v>
       </c>
@@ -3737,6 +3764,9 @@
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>646</v>
+      </c>
       <c r="C223" t="s">
         <v>462</v>
       </c>
@@ -4600,6 +4630,9 @@
       </c>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B374" t="s">
+        <v>650</v>
+      </c>
       <c r="C374" t="s">
         <v>577</v>
       </c>
@@ -4610,6 +4643,9 @@
       </c>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B376" t="s">
+        <v>651</v>
+      </c>
       <c r="C376" t="s">
         <v>579</v>
       </c>

--- a/excels/Core/Trad MM.xlsx
+++ b/excels/Core/Trad MM.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rol\Roll20\Repos github\5etoolsEsp\excels\Core\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0E59B5-319B-4C01-A2E7-6CD2AC81C28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" tabRatio="854" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,8 @@
     <sheet name="traitTags" sheetId="22" r:id="rId6"/>
     <sheet name="actionTags" sheetId="25" r:id="rId7"/>
     <sheet name="Group" sheetId="26" r:id="rId8"/>
-    <sheet name="Temporal" sheetId="2" r:id="rId9"/>
+    <sheet name="sense" sheetId="27" r:id="rId9"/>
+    <sheet name="Temporal" sheetId="2" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">environment!$B$1:$C$12</definedName>
@@ -28,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="654">
   <si>
     <t>quickref</t>
   </si>
@@ -1984,12 +1991,18 @@
   </si>
   <si>
     <t>Gigante de las tormentas</t>
+  </si>
+  <si>
+    <t>Sentir vibraciones</t>
+  </si>
+  <si>
+    <t>Tremorsense</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2061,12 +2074,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2108,7 +2124,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2141,9 +2157,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2176,6 +2209,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2351,24 +2401,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="50.875" customWidth="1"/>
-    <col min="3" max="3" width="34.875" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>9</v>
@@ -2386,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
     </row>
@@ -2420,21 +2470,40 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="49.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9" style="6"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+    <sheetView topLeftCell="A123" workbookViewId="0">
       <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.625" customWidth="1"/>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
@@ -2442,82 +2511,82 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>160</v>
       </c>
@@ -2525,7 +2594,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>290</v>
       </c>
@@ -2533,72 +2602,72 @@
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>291</v>
       </c>
@@ -2606,7 +2675,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>251</v>
       </c>
@@ -2614,22 +2683,22 @@
         <v>245</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>341</v>
       </c>
@@ -2642,7 +2711,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>292</v>
       </c>
@@ -2650,12 +2719,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>252</v>
       </c>
@@ -2671,27 +2740,27 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>147</v>
       </c>
@@ -2699,7 +2768,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>141</v>
       </c>
@@ -2707,17 +2776,17 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>148</v>
       </c>
@@ -2725,27 +2794,27 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>254</v>
       </c>
@@ -2753,17 +2822,17 @@
         <v>246</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>355</v>
       </c>
@@ -2776,12 +2845,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>357</v>
       </c>
@@ -2794,32 +2863,32 @@
         <v>239</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>178</v>
       </c>
@@ -2827,7 +2896,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>11</v>
       </c>
@@ -2835,27 +2904,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>218</v>
       </c>
@@ -2863,12 +2932,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>219</v>
       </c>
@@ -2876,7 +2945,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>183</v>
       </c>
@@ -2884,42 +2953,42 @@
         <v>182</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>647</v>
       </c>
@@ -2927,12 +2996,12 @@
         <v>375</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>36</v>
       </c>
@@ -2940,7 +3009,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>226</v>
       </c>
@@ -2948,17 +3017,17 @@
         <v>211</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>194</v>
       </c>
@@ -2966,12 +3035,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>293</v>
       </c>
@@ -2979,12 +3048,12 @@
         <v>279</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>38</v>
       </c>
@@ -2992,47 +3061,47 @@
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>256</v>
       </c>
@@ -3040,17 +3109,17 @@
         <v>235</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>129</v>
       </c>
@@ -3058,17 +3127,17 @@
         <v>126</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>39</v>
       </c>
@@ -3076,17 +3145,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>144</v>
       </c>
@@ -3094,52 +3163,52 @@
         <v>144</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
         <v>404</v>
       </c>
@@ -3152,7 +3221,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>162</v>
       </c>
@@ -3160,12 +3229,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>294</v>
       </c>
@@ -3173,7 +3242,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>257</v>
       </c>
@@ -3181,62 +3250,62 @@
         <v>240</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>164</v>
       </c>
@@ -3244,7 +3313,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>648</v>
       </c>
@@ -3252,12 +3321,12 @@
         <v>417</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>44</v>
       </c>
@@ -3265,12 +3334,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>167</v>
       </c>
@@ -3278,7 +3347,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>220</v>
       </c>
@@ -3286,22 +3355,22 @@
         <v>209</v>
       </c>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>649</v>
       </c>
@@ -3309,37 +3378,37 @@
         <v>423</v>
       </c>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C157" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>60</v>
       </c>
@@ -3347,7 +3416,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
         <v>430</v>
       </c>
@@ -5053,8 +5122,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C50">
-    <sortState ref="B2:C451">
+  <autoFilter ref="B1:C50" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C451">
       <sortCondition ref="C1:C50"/>
     </sortState>
   </autoFilter>
@@ -5064,20 +5133,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
@@ -5093,7 +5162,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>64</v>
       </c>
@@ -5101,7 +5170,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>132</v>
       </c>
@@ -5125,7 +5194,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>157</v>
       </c>
@@ -5141,7 +5210,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>138</v>
       </c>
@@ -5149,7 +5218,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>85</v>
       </c>
@@ -5157,7 +5226,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>49</v>
       </c>
@@ -5165,7 +5234,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>51</v>
       </c>
@@ -5173,7 +5242,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>150</v>
       </c>
@@ -5181,7 +5250,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>104</v>
       </c>
@@ -5189,7 +5258,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -5198,8 +5267,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C14">
-    <sortState ref="B2:C15">
+  <autoFilter ref="B1:C14" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C15">
       <sortCondition ref="C1:C14"/>
     </sortState>
   </autoFilter>
@@ -5208,20 +5277,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.25" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
@@ -5229,7 +5298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>47</v>
       </c>
@@ -5237,7 +5306,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>89</v>
       </c>
@@ -5245,7 +5314,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>114</v>
       </c>
@@ -5253,7 +5322,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>116</v>
       </c>
@@ -5261,7 +5330,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>118</v>
       </c>
@@ -5269,7 +5338,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>140</v>
       </c>
@@ -5277,7 +5346,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>154</v>
       </c>
@@ -5285,7 +5354,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>156</v>
       </c>
@@ -5299,20 +5368,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
@@ -5320,7 +5389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -5328,7 +5397,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>34</v>
       </c>
@@ -5336,7 +5405,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -5344,7 +5413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -5352,7 +5421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -5360,7 +5429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>28</v>
       </c>
@@ -5376,7 +5445,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>30</v>
       </c>
@@ -5384,7 +5453,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -5392,7 +5461,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>33</v>
       </c>
@@ -5400,7 +5469,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -5409,8 +5478,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C12">
-    <sortState ref="B2:C12">
+  <autoFilter ref="B1:C12" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C12">
       <sortCondition ref="C1:C12"/>
     </sortState>
   </autoFilter>
@@ -5419,20 +5488,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.875" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
@@ -5440,7 +5509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>41</v>
       </c>
@@ -5448,7 +5517,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -5456,7 +5525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>53</v>
       </c>
@@ -5472,7 +5541,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>57</v>
       </c>
@@ -5480,7 +5549,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>42</v>
       </c>
@@ -5512,7 +5581,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>74</v>
       </c>
@@ -5520,7 +5589,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>93</v>
       </c>
@@ -5529,8 +5598,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C7">
-    <sortState ref="B2:C7">
+  <autoFilter ref="B1:C7" xr:uid="{00000000-0009-0000-0000-000005000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C7">
       <sortCondition ref="C1:C7"/>
     </sortState>
   </autoFilter>
@@ -5539,20 +5608,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
@@ -5574,20 +5643,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
@@ -5595,7 +5664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>98</v>
       </c>
@@ -5606,20 +5675,36 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D490259C-6334-4FC3-B608-508299785191}">
+  <dimension ref="B1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="49.5" customWidth="1"/>
-    <col min="3" max="3" width="32.375" customWidth="1"/>
-    <col min="5" max="5" width="9" style="6"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>